--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H2">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I2">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J2">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4728802740447</v>
+        <v>21.605737</v>
       </c>
       <c r="N2">
-        <v>18.4728802740447</v>
+        <v>64.817211</v>
       </c>
       <c r="O2">
-        <v>0.04282037503870845</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P2">
-        <v>0.04282037503870845</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q2">
-        <v>217.7041405724287</v>
+        <v>324.8687228228251</v>
       </c>
       <c r="R2">
-        <v>217.7041405724287</v>
+        <v>2923.818505405425</v>
       </c>
       <c r="S2">
-        <v>0.002891169098354453</v>
+        <v>0.003171478786949946</v>
       </c>
       <c r="T2">
-        <v>0.002891169098354453</v>
+        <v>0.003528829340423419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H3">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I3">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J3">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>186.487118979237</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N3">
-        <v>186.487118979237</v>
+        <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.4322795501359428</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P3">
-        <v>0.4322795501359428</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q3">
-        <v>2197.763281248926</v>
+        <v>7.125085626800001</v>
       </c>
       <c r="R3">
-        <v>2197.763281248926</v>
+        <v>64.12577064120001</v>
       </c>
       <c r="S3">
-        <v>0.02918688302178165</v>
+        <v>6.955750533399921E-05</v>
       </c>
       <c r="T3">
-        <v>0.02918688302178165</v>
+        <v>7.739498894940861E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H4">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I4">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J4">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>216.412317214466</v>
+        <v>229.146642</v>
       </c>
       <c r="N4">
-        <v>216.412317214466</v>
+        <v>687.439926</v>
       </c>
       <c r="O4">
-        <v>0.5016465461068224</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P4">
-        <v>0.5016465461068224</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q4">
-        <v>2550.433761791895</v>
+        <v>3445.500467106451</v>
       </c>
       <c r="R4">
-        <v>2550.433761791895</v>
+        <v>31009.50420395805</v>
       </c>
       <c r="S4">
-        <v>0.03387044114137756</v>
+        <v>0.03363614553874342</v>
       </c>
       <c r="T4">
-        <v>0.03387044114137756</v>
+        <v>0.03742614258190319</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.785067479613</v>
+        <v>15.036225</v>
       </c>
       <c r="H5">
-        <v>11.785067479613</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I5">
-        <v>0.06751853751259571</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J5">
-        <v>0.06751853751259571</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0316648693078</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N5">
-        <v>10.0316648693078</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O5">
-        <v>0.02325352871852629</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P5">
-        <v>0.02325352871852629</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q5">
-        <v>118.2238474176555</v>
+        <v>3318.337493381225</v>
       </c>
       <c r="R5">
-        <v>118.2238474176555</v>
+        <v>29865.03744043102</v>
       </c>
       <c r="S5">
-        <v>0.001570044251082039</v>
+        <v>0.03239473740886638</v>
       </c>
       <c r="T5">
-        <v>0.001570044251082039</v>
+        <v>0.03604485715436822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.67523243787021</v>
+        <v>15.036225</v>
       </c>
       <c r="H6">
-        <v>66.67523243787021</v>
+        <v>45.10867500000001</v>
       </c>
       <c r="I6">
-        <v>0.3819930764338067</v>
+        <v>0.07077603440906459</v>
       </c>
       <c r="J6">
-        <v>0.3819930764338067</v>
+        <v>0.07819295295152685</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.4728802740447</v>
+        <v>10.2468025</v>
       </c>
       <c r="N6">
-        <v>18.4728802740447</v>
+        <v>20.493605</v>
       </c>
       <c r="O6">
-        <v>0.04282037503870845</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P6">
-        <v>0.04282037503870845</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q6">
-        <v>1231.683586068878</v>
+        <v>154.0732279205625</v>
       </c>
       <c r="R6">
-        <v>1231.683586068878</v>
+        <v>924.4393675233752</v>
       </c>
       <c r="S6">
-        <v>0.01635708679508563</v>
+        <v>0.00150411516917084</v>
       </c>
       <c r="T6">
-        <v>0.01635708679508563</v>
+        <v>0.001115728885882611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H7">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I7">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J7">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>186.487118979237</v>
+        <v>21.605737</v>
       </c>
       <c r="N7">
-        <v>186.487118979237</v>
+        <v>64.817211</v>
       </c>
       <c r="O7">
-        <v>0.4322795501359428</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P7">
-        <v>0.4322795501359428</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q7">
-        <v>12434.07200460938</v>
+        <v>1572.013107525308</v>
       </c>
       <c r="R7">
-        <v>12434.07200460938</v>
+        <v>14148.11796772777</v>
       </c>
       <c r="S7">
-        <v>0.1651277952358507</v>
+        <v>0.01534652575970756</v>
       </c>
       <c r="T7">
-        <v>0.1651277952358507</v>
+        <v>0.01707571578194338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H8">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I8">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J8">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>216.412317214466</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N8">
-        <v>216.412317214466</v>
+        <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.5016465461068224</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P8">
-        <v>0.5016465461068224</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q8">
-        <v>14429.34155269262</v>
+        <v>34.47770502572622</v>
       </c>
       <c r="R8">
-        <v>14429.34155269262</v>
+        <v>310.299345231536</v>
       </c>
       <c r="S8">
-        <v>0.1916255074297385</v>
+        <v>0.0003365830639579371</v>
       </c>
       <c r="T8">
-        <v>0.1916255074297385</v>
+        <v>0.0003745080044273764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>66.67523243787021</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H9">
-        <v>66.67523243787021</v>
+        <v>218.277179</v>
       </c>
       <c r="I9">
-        <v>0.3819930764338067</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J9">
-        <v>0.3819930764338067</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.0316648693078</v>
+        <v>229.146642</v>
       </c>
       <c r="N9">
-        <v>10.0316648693078</v>
+        <v>687.439926</v>
       </c>
       <c r="O9">
-        <v>0.02325352871852629</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P9">
-        <v>0.02325352871852629</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q9">
-        <v>668.8635868999145</v>
+        <v>16672.4941976943</v>
       </c>
       <c r="R9">
-        <v>668.8635868999145</v>
+        <v>150052.4477792488</v>
       </c>
       <c r="S9">
-        <v>0.008882686973131732</v>
+        <v>0.1627625497895992</v>
       </c>
       <c r="T9">
-        <v>0.008882686973131732</v>
+        <v>0.1811020346669373</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.5251672911119</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H10">
-        <v>31.5251672911119</v>
+        <v>218.277179</v>
       </c>
       <c r="I10">
-        <v>0.1806127282697317</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J10">
-        <v>0.1806127282697317</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4728802740447</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N10">
-        <v>18.4728802740447</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O10">
-        <v>0.04282037503870845</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P10">
-        <v>0.04282037503870845</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q10">
-        <v>582.3606409879402</v>
+        <v>16057.16299636788</v>
       </c>
       <c r="R10">
-        <v>582.3606409879402</v>
+        <v>144514.4669673109</v>
       </c>
       <c r="S10">
-        <v>0.00773390476127425</v>
+        <v>0.1567554776559746</v>
       </c>
       <c r="T10">
-        <v>0.00773390476127425</v>
+        <v>0.174418107761167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.5251672911119</v>
+        <v>72.75905966666666</v>
       </c>
       <c r="H11">
-        <v>31.5251672911119</v>
+        <v>218.277179</v>
       </c>
       <c r="I11">
-        <v>0.1806127282697317</v>
+        <v>0.3424794262216203</v>
       </c>
       <c r="J11">
-        <v>0.1806127282697317</v>
+        <v>0.378369286793261</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.487118979237</v>
+        <v>10.2468025</v>
       </c>
       <c r="N11">
-        <v>186.487118979237</v>
+        <v>20.493605</v>
       </c>
       <c r="O11">
-        <v>0.4322795501359428</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P11">
-        <v>0.4322795501359428</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q11">
-        <v>5879.037623457935</v>
+        <v>745.5477144900492</v>
       </c>
       <c r="R11">
-        <v>5879.037623457935</v>
+        <v>4473.286286940295</v>
       </c>
       <c r="S11">
-        <v>0.07807518892526487</v>
+        <v>0.007278289952380972</v>
       </c>
       <c r="T11">
-        <v>0.07807518892526487</v>
+        <v>0.00539892057878599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.5251672911119</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H12">
-        <v>31.5251672911119</v>
+        <v>97.416538</v>
       </c>
       <c r="I12">
-        <v>0.1806127282697317</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J12">
-        <v>0.1806127282697317</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>216.412317214466</v>
+        <v>21.605737</v>
       </c>
       <c r="N12">
-        <v>216.412317214466</v>
+        <v>64.817211</v>
       </c>
       <c r="O12">
-        <v>0.5016465461068224</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P12">
-        <v>0.5016465461068224</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q12">
-        <v>6822.434504043215</v>
+        <v>701.5853664928354</v>
       </c>
       <c r="R12">
-        <v>6822.434504043215</v>
+        <v>6314.268298435518</v>
       </c>
       <c r="S12">
-        <v>0.09060375131944091</v>
+        <v>0.00684911458306198</v>
       </c>
       <c r="T12">
-        <v>0.09060375131944091</v>
+        <v>0.007620847598313915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.5251672911119</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H13">
-        <v>31.5251672911119</v>
+        <v>97.416538</v>
       </c>
       <c r="I13">
-        <v>0.1806127282697317</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J13">
-        <v>0.1806127282697317</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>10.0316648693078</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N13">
-        <v>10.0316648693078</v>
+        <v>1.421584</v>
       </c>
       <c r="O13">
-        <v>0.02325352871852629</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P13">
-        <v>0.02325352871852629</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q13">
-        <v>316.2499132132986</v>
+        <v>15.38731019513244</v>
       </c>
       <c r="R13">
-        <v>316.2499132132986</v>
+        <v>138.485791756192</v>
       </c>
       <c r="S13">
-        <v>0.00419988326375159</v>
+        <v>0.0001502161471502929</v>
       </c>
       <c r="T13">
-        <v>0.00419988326375159</v>
+        <v>0.0001671419495695594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.5176419125535</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H14">
-        <v>29.5176419125535</v>
+        <v>97.416538</v>
       </c>
       <c r="I14">
-        <v>0.1691112941189164</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J14">
-        <v>0.1691112941189164</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.4728802740447</v>
+        <v>229.146642</v>
       </c>
       <c r="N14">
-        <v>18.4728802740447</v>
+        <v>687.439926</v>
       </c>
       <c r="O14">
-        <v>0.04282037503870845</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P14">
-        <v>0.04282037503870845</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q14">
-        <v>545.2758650227247</v>
+        <v>7440.890852655133</v>
       </c>
       <c r="R14">
-        <v>545.2758650227247</v>
+        <v>66968.01767389619</v>
       </c>
       <c r="S14">
-        <v>0.007241409037453332</v>
+        <v>0.07264050318588451</v>
       </c>
       <c r="T14">
-        <v>0.007241409037453332</v>
+        <v>0.08082536764875914</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.5176419125535</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H15">
-        <v>29.5176419125535</v>
+        <v>97.416538</v>
       </c>
       <c r="I15">
-        <v>0.1691112941189164</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J15">
-        <v>0.1691112941189164</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>186.487118979237</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N15">
-        <v>186.487118979237</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O15">
-        <v>0.4322795501359428</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P15">
-        <v>0.4322795501359428</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q15">
-        <v>5504.659999332877</v>
+        <v>7166.270135861824</v>
       </c>
       <c r="R15">
-        <v>5504.659999332877</v>
+        <v>64496.43122275641</v>
       </c>
       <c r="S15">
-        <v>0.07310335414463229</v>
+        <v>0.06995956249636801</v>
       </c>
       <c r="T15">
-        <v>0.07310335414463229</v>
+        <v>0.07784234843260378</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.5176419125535</v>
+        <v>32.47217933333334</v>
       </c>
       <c r="H16">
-        <v>29.5176419125535</v>
+        <v>97.416538</v>
       </c>
       <c r="I16">
-        <v>0.1691112941189164</v>
+        <v>0.1528476783124299</v>
       </c>
       <c r="J16">
-        <v>0.1691112941189164</v>
+        <v>0.1688652298595476</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>216.412317214466</v>
+        <v>10.2468025</v>
       </c>
       <c r="N16">
-        <v>216.412317214466</v>
+        <v>20.493605</v>
       </c>
       <c r="O16">
-        <v>0.5016465461068224</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P16">
-        <v>0.5016465461068224</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q16">
-        <v>6387.981285002545</v>
+        <v>332.7360083732484</v>
       </c>
       <c r="R16">
-        <v>6387.981285002545</v>
+        <v>1996.41605023949</v>
       </c>
       <c r="S16">
-        <v>0.0848340966024094</v>
+        <v>0.003248281899965086</v>
       </c>
       <c r="T16">
-        <v>0.0848340966024094</v>
+        <v>0.002409524230301178</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.5176419125535</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H17">
-        <v>29.5176419125535</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I17">
-        <v>0.1691112941189164</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J17">
-        <v>0.1691112941189164</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.0316648693078</v>
+        <v>21.605737</v>
       </c>
       <c r="N17">
-        <v>10.0316648693078</v>
+        <v>64.817211</v>
       </c>
       <c r="O17">
-        <v>0.02325352871852629</v>
+        <v>0.04481006619585007</v>
       </c>
       <c r="P17">
-        <v>0.02325352871852629</v>
+        <v>0.04512976179082277</v>
       </c>
       <c r="Q17">
-        <v>296.1110913989705</v>
+        <v>685.4604648263103</v>
       </c>
       <c r="R17">
-        <v>296.1110913989705</v>
+        <v>6169.144183436792</v>
       </c>
       <c r="S17">
-        <v>0.003932434334421368</v>
+        <v>0.006691697817506101</v>
       </c>
       <c r="T17">
-        <v>0.003932434334421368</v>
+        <v>0.007445693691166906</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0425477277497</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H18">
-        <v>35.0425477277497</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I18">
-        <v>0.2007643636649495</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J18">
-        <v>0.2007643636649495</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>18.4728802740447</v>
+        <v>0.4738613333333333</v>
       </c>
       <c r="N18">
-        <v>18.4728802740447</v>
+        <v>1.421584</v>
       </c>
       <c r="O18">
-        <v>0.04282037503870845</v>
+        <v>0.0009827833095589584</v>
       </c>
       <c r="P18">
-        <v>0.04282037503870845</v>
+        <v>0.0009897949371139249</v>
       </c>
       <c r="Q18">
-        <v>647.3367886722174</v>
+        <v>15.03365563553244</v>
       </c>
       <c r="R18">
-        <v>647.3367886722174</v>
+        <v>135.302900719792</v>
       </c>
       <c r="S18">
-        <v>0.008596805346540788</v>
+        <v>0.0001467636512499989</v>
       </c>
       <c r="T18">
-        <v>0.008596805346540788</v>
+        <v>0.0001633004391420639</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0425477277497</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H19">
-        <v>35.0425477277497</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I19">
-        <v>0.2007643636649495</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J19">
-        <v>0.2007643636649495</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>186.487118979237</v>
+        <v>229.146642</v>
       </c>
       <c r="N19">
-        <v>186.487118979237</v>
+        <v>687.439926</v>
       </c>
       <c r="O19">
-        <v>0.4322795501359428</v>
+        <v>0.4752476713280717</v>
       </c>
       <c r="P19">
-        <v>0.4322795501359428</v>
+        <v>0.4786383065121521</v>
       </c>
       <c r="Q19">
-        <v>6534.98376744045</v>
+        <v>7269.872985064482</v>
       </c>
       <c r="R19">
-        <v>6534.98376744045</v>
+        <v>65428.85686558033</v>
       </c>
       <c r="S19">
-        <v>0.08678632880841317</v>
+        <v>0.07097096869041089</v>
       </c>
       <c r="T19">
-        <v>0.08678632880841317</v>
+        <v>0.0789677161529589</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>35.0425477277497</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H20">
-        <v>35.0425477277497</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I20">
-        <v>0.2007643636649495</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J20">
-        <v>0.2007643636649495</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>216.412317214466</v>
+        <v>220.6895343333333</v>
       </c>
       <c r="N20">
-        <v>216.412317214466</v>
+        <v>662.0686029999999</v>
       </c>
       <c r="O20">
-        <v>0.5016465461068224</v>
+        <v>0.4577077209728135</v>
       </c>
       <c r="P20">
-        <v>0.5016465461068224</v>
+        <v>0.4609732180943856</v>
       </c>
       <c r="Q20">
-        <v>7583.638954860832</v>
+        <v>7001.564019150497</v>
       </c>
       <c r="R20">
-        <v>7583.638954860832</v>
+        <v>63014.07617235448</v>
       </c>
       <c r="S20">
-        <v>0.1007127496138559</v>
+        <v>0.06835164545624176</v>
       </c>
       <c r="T20">
-        <v>0.1007127496138559</v>
+        <v>0.0760532572201662</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>35.0425477277497</v>
+        <v>31.72585433333333</v>
       </c>
       <c r="H21">
-        <v>35.0425477277497</v>
+        <v>95.17756299999999</v>
       </c>
       <c r="I21">
-        <v>0.2007643636649495</v>
+        <v>0.1493347005616749</v>
       </c>
       <c r="J21">
-        <v>0.2007643636649495</v>
+        <v>0.1649841123841474</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.0316648693078</v>
+        <v>10.2468025</v>
       </c>
       <c r="N21">
-        <v>10.0316648693078</v>
+        <v>20.493605</v>
       </c>
       <c r="O21">
-        <v>0.02325352871852629</v>
+        <v>0.02125175819370578</v>
       </c>
       <c r="P21">
-        <v>0.02325352871852629</v>
+        <v>0.01426891866552565</v>
       </c>
       <c r="Q21">
-        <v>351.5350949715086</v>
+        <v>325.0885634974359</v>
       </c>
       <c r="R21">
-        <v>351.5350949715086</v>
+        <v>1950.531380984615</v>
       </c>
       <c r="S21">
-        <v>0.004668479896139558</v>
+        <v>0.003173624946266173</v>
       </c>
       <c r="T21">
-        <v>0.004668479896139558</v>
+        <v>0.002354144880713343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>60.454654</v>
+      </c>
+      <c r="H22">
+        <v>120.909308</v>
+      </c>
+      <c r="I22">
+        <v>0.2845621604952103</v>
+      </c>
+      <c r="J22">
+        <v>0.209588418011517</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>21.605737</v>
+      </c>
+      <c r="N22">
+        <v>64.817211</v>
+      </c>
+      <c r="O22">
+        <v>0.04481006619585007</v>
+      </c>
+      <c r="P22">
+        <v>0.04512976179082277</v>
+      </c>
+      <c r="Q22">
+        <v>1306.167354749998</v>
+      </c>
+      <c r="R22">
+        <v>7837.004128499988</v>
+      </c>
+      <c r="S22">
+        <v>0.01275124924862449</v>
+      </c>
+      <c r="T22">
+        <v>0.009458675378975153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>60.454654</v>
+      </c>
+      <c r="H23">
+        <v>120.909308</v>
+      </c>
+      <c r="I23">
+        <v>0.2845621604952103</v>
+      </c>
+      <c r="J23">
+        <v>0.209588418011517</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.421584</v>
+      </c>
+      <c r="O23">
+        <v>0.0009827833095589584</v>
+      </c>
+      <c r="P23">
+        <v>0.0009897949371139249</v>
+      </c>
+      <c r="Q23">
+        <v>28.64712295064533</v>
+      </c>
+      <c r="R23">
+        <v>171.882737703872</v>
+      </c>
+      <c r="S23">
+        <v>0.0002796629418667303</v>
+      </c>
+      <c r="T23">
+        <v>0.0002074495550255165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>60.454654</v>
+      </c>
+      <c r="H24">
+        <v>120.909308</v>
+      </c>
+      <c r="I24">
+        <v>0.2845621604952103</v>
+      </c>
+      <c r="J24">
+        <v>0.209588418011517</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>229.146642</v>
+      </c>
+      <c r="N24">
+        <v>687.439926</v>
+      </c>
+      <c r="O24">
+        <v>0.4752476713280717</v>
+      </c>
+      <c r="P24">
+        <v>0.4786383065121521</v>
+      </c>
+      <c r="Q24">
+        <v>13852.98095737187</v>
+      </c>
+      <c r="R24">
+        <v>83117.8857442312</v>
+      </c>
+      <c r="S24">
+        <v>0.1352375041234337</v>
+      </c>
+      <c r="T24">
+        <v>0.1003170454615935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>60.454654</v>
+      </c>
+      <c r="H25">
+        <v>120.909308</v>
+      </c>
+      <c r="I25">
+        <v>0.2845621604952103</v>
+      </c>
+      <c r="J25">
+        <v>0.209588418011517</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>220.6895343333333</v>
+      </c>
+      <c r="N25">
+        <v>662.0686029999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4577077209728135</v>
+      </c>
+      <c r="P25">
+        <v>0.4609732180943856</v>
+      </c>
+      <c r="Q25">
+        <v>13341.70943954278</v>
+      </c>
+      <c r="R25">
+        <v>80050.25663725671</v>
+      </c>
+      <c r="S25">
+        <v>0.1302462979553627</v>
+      </c>
+      <c r="T25">
+        <v>0.09661464752608029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>60.454654</v>
+      </c>
+      <c r="H26">
+        <v>120.909308</v>
+      </c>
+      <c r="I26">
+        <v>0.2845621604952103</v>
+      </c>
+      <c r="J26">
+        <v>0.209588418011517</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.2468025</v>
+      </c>
+      <c r="N26">
+        <v>20.493605</v>
+      </c>
+      <c r="O26">
+        <v>0.02125175819370578</v>
+      </c>
+      <c r="P26">
+        <v>0.01426891866552565</v>
+      </c>
+      <c r="Q26">
+        <v>619.466899743835</v>
+      </c>
+      <c r="R26">
+        <v>2477.86759897534</v>
+      </c>
+      <c r="S26">
+        <v>0.006047446225922704</v>
+      </c>
+      <c r="T26">
+        <v>0.002990600089842528</v>
       </c>
     </row>
   </sheetData>
